--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2541433.979799788</v>
+        <v>2685400.506994494</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.44564101</v>
+        <v>16612500.99216495</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4748516.163874758</v>
+        <v>5005135.498439556</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>192.0059046618772</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>36.48422835908769</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -868,22 +870,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>86.26520596027558</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>163.6886320533351</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +904,16 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>252.2397730721999</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -959,10 +961,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>344.435883716047</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>134.9358596711128</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1102,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>59.75327699891097</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51.67859516108212</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>58.75419230852108</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1148,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>51.25395846644548</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>53.06991172717037</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1370,10 +1372,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>299.5628004026905</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1430,7 +1432,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170502</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>46.22530271040065</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1607,10 +1609,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>282.1093179792365</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1619,13 +1621,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1774,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170502</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>39.57637241135877</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1850,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2005,10 +2007,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>24.62703520776638</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>7.264602967362117</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2141,7 +2143,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>75.86622810093029</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>86.74508580040322</v>
+        <v>28.85560178398585</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2615,7 +2617,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -2810,7 +2812,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3190,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>98.73120706589778</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3199,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -3235,7 +3237,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3247,13 +3249,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>107.3792913045956</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>152.5168019860612</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3442,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>101.7706336613758</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3727,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>192.1927963373141</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3742,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791314795</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W41" t="n">
-        <v>50.28454703777634</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="42">
@@ -3907,7 +3909,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -3916,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>228.2076316946665</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>209.6580956704396</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3977,25 +3979,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884095</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112177</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314795</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4034,16 +4036,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W44" t="n">
-        <v>311.7142372186238</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4135,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>10.04027365719937</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4147,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>94.21878984361699</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>991.498727323736</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>957.3966585475634</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>528.8149842848318</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>499.080643483531</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>71.21321389273874</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="L2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="M2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="N2" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="K2" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="L2" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="N2" t="n">
-        <v>687.9235674375537</v>
-      </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1134.24202645431</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>771.6250763881362</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W2" t="n">
-        <v>366.7696217991695</v>
+        <v>1437.146076848872</v>
       </c>
       <c r="X2" t="n">
-        <v>351.6675624188842</v>
+        <v>1422.044017468586</v>
       </c>
       <c r="Y2" t="n">
-        <v>347.4218427589418</v>
+        <v>1013.75789376824</v>
       </c>
     </row>
     <row r="3">
@@ -4404,25 +4406,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8519551513678</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K3" t="n">
-        <v>739.904854096271</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="L3" t="n">
-        <v>739.904854096271</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M3" t="n">
-        <v>739.904854096271</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>593.9750599092082</v>
+        <v>432.2637958858213</v>
       </c>
       <c r="C4" t="n">
-        <v>593.9750599092082</v>
+        <v>432.2637958858213</v>
       </c>
       <c r="D4" t="n">
-        <v>428.0970671107308</v>
+        <v>432.2637958858213</v>
       </c>
       <c r="E4" t="n">
-        <v>428.0970671107308</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G4" t="n">
         <v>262.5057921365585</v>
@@ -4486,22 +4488,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>538.7332355342593</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>958.7861344791625</v>
       </c>
       <c r="N4" t="n">
-        <v>1292.259348259376</v>
+        <v>958.7861344791625</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4516,22 +4518,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1238.091239336891</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>951.1357312073217</v>
+        <v>905.0752212383005</v>
       </c>
       <c r="W4" t="n">
-        <v>951.1357312073217</v>
+        <v>905.0752212383005</v>
       </c>
       <c r="X4" t="n">
-        <v>951.1357312073217</v>
+        <v>659.683466571713</v>
       </c>
       <c r="Y4" t="n">
-        <v>785.7936786281953</v>
+        <v>432.2637958858213</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>555.2911052642175</v>
+        <v>829.2100454836328</v>
       </c>
       <c r="C5" t="n">
-        <v>521.1890364880448</v>
+        <v>795.1079767074602</v>
       </c>
       <c r="D5" t="n">
-        <v>489.3196557028934</v>
+        <v>763.2385959223088</v>
       </c>
       <c r="E5" t="n">
-        <v>459.5853149015927</v>
+        <v>329.463851080604</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>305.6368255302158</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>305.6368255302158</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.84917596233706</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>1181.865694717423</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1181.865694717423</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717423</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762202</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720796</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2301.552102346892</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2042.329799663909</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1679.712849597735</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>1274.857395008768</v>
       </c>
       <c r="X5" t="n">
-        <v>581.7959913686639</v>
+        <v>1259.755335628483</v>
       </c>
       <c r="Y5" t="n">
-        <v>577.5502717087213</v>
+        <v>851.4692119281366</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>431.6596472970921</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>431.6596472970921</v>
       </c>
       <c r="P6" t="n">
-        <v>1224.671464618085</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>1093.227683837222</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>266.2978593068792</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>684.5077410748403</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1143.991608255753</v>
       </c>
       <c r="N7" t="n">
-        <v>1292.259348259376</v>
+        <v>1586.250411413398</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2005.919660639179</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2353.426554609521</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2362.37796077185</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2116.498514350305</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>1838.06551360341</v>
       </c>
       <c r="V7" t="n">
-        <v>1418.750429333523</v>
+        <v>1838.06551360341</v>
       </c>
       <c r="W7" t="n">
-        <v>1418.750429333523</v>
+        <v>1566.039109189702</v>
       </c>
       <c r="X7" t="n">
-        <v>1173.358674666935</v>
+        <v>1320.647354523114</v>
       </c>
       <c r="Y7" t="n">
-        <v>1113.00182921349</v>
+        <v>1093.227683837222</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>893.9996686250441</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>859.8975998488716</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>800.5499308503654</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1437.961127397434</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1033.105672808467</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>613.9632093877782</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.6770856874316</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>940.4401176967148</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>940.4401176967148</v>
+        <v>1624.527709695201</v>
       </c>
       <c r="X10" t="n">
-        <v>940.4401176967148</v>
+        <v>1379.135955028614</v>
       </c>
       <c r="Y10" t="n">
-        <v>940.4401176967148</v>
+        <v>1151.716284342722</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1931.313250225943</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1931.313250225943</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1628.724562950498</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2262.917935035995</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2262.917935035995</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2262.917935035995</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3547.65835789806</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3185.041407831886</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3185.041407831886</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2765.898944411197</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2357.61282071085</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>76.13761321162086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>400.6959381778332</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K12" t="n">
-        <v>1081.429458248211</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L12" t="n">
-        <v>1081.429458248211</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M12" t="n">
-        <v>1081.429458248211</v>
+        <v>1327.049347523737</v>
       </c>
       <c r="N12" t="n">
-        <v>1081.429458248211</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O12" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>785.6314506292333</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>613.0697391124583</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>447.191746313981</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>277.4337425647182</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>100.7266885264744</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>76.13761321162086</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2533.555854412417</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T13" t="n">
-        <v>2287.676407990873</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U13" t="n">
-        <v>2009.243407243978</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.287899114408</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.2614947007</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.869740034112</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y13" t="n">
-        <v>977.4500693482205</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1222.738694693852</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>937.779787644118</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>937.779787644118</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>504.0050428024131</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>76.13761321162086</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>76.13761321162086</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>145.9214781414407</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>980.2717700996187</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1922.474733593427</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M14" t="n">
-        <v>1922.474733593427</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>2864.677697087235</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3806.880660581043</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>3806.880660581043</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3806.880660581043</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2881.322306888762</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>2476.466852299795</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2057.324388879106</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1649.03826517876</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>76.13761321162086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>400.6959381778332</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>400.6959381778332</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>797.1744111966217</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>797.1744111966217</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>797.1744111966217</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1739.37737469043</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1739.37737469043</v>
+        <v>1272.606004876648</v>
       </c>
       <c r="Q15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>785.6314506292333</v>
+        <v>790.3368563937674</v>
       </c>
       <c r="C16" t="n">
-        <v>613.0697391124583</v>
+        <v>617.7751448769924</v>
       </c>
       <c r="D16" t="n">
-        <v>447.191746313981</v>
+        <v>451.8971520785151</v>
       </c>
       <c r="E16" t="n">
-        <v>277.4337425647182</v>
+        <v>282.1391483292524</v>
       </c>
       <c r="F16" t="n">
-        <v>100.7266885264744</v>
+        <v>282.1391483292524</v>
       </c>
       <c r="G16" t="n">
-        <v>76.13761321162086</v>
+        <v>282.1391483292524</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162086</v>
+        <v>142.2369740196269</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006609</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.80886177457</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S16" t="n">
-        <v>2533.555854412417</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T16" t="n">
-        <v>2287.676407990873</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U16" t="n">
-        <v>2009.243407243978</v>
+        <v>2013.948813008512</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.287899114408</v>
+        <v>1726.993304878942</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.2614947007</v>
+        <v>1454.966900465234</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.869740034112</v>
+        <v>1209.575145798646</v>
       </c>
       <c r="Y16" t="n">
-        <v>977.4500693482205</v>
+        <v>982.1554751127546</v>
       </c>
     </row>
     <row r="17">
@@ -5498,43 +5500,43 @@
         <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M17" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4294.449917128814</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5595,22 +5597,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L18" t="n">
-        <v>405.0384966383147</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M18" t="n">
-        <v>405.0384966383147</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N18" t="n">
-        <v>405.0384966383147</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O18" t="n">
-        <v>405.0384966383147</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1602.717526820355</v>
       </c>
       <c r="Q18" t="n">
         <v>1765.500601749588</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883914</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716164</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>451.897152078511</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>275.1900980402672</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>109.5988230660949</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,52 +5752,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>1612.575493976557</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M20" t="n">
-        <v>2769.623329187108</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N20" t="n">
-        <v>3895.354312623555</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O20" t="n">
-        <v>4875.533979193861</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P20" t="n">
-        <v>4875.533979193861</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L21" t="n">
-        <v>751.6989919312866</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M21" t="n">
-        <v>751.6989919312866</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N21" t="n">
-        <v>751.6989919312866</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2642.287896536276</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T22" t="n">
-        <v>2396.408450114731</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U22" t="n">
-        <v>2117.975449367836</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="23">
@@ -5990,19 +5992,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688178</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321677</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532228</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968675</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
         <v>5113.04201353898</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1003.573296407379</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>831.0115848906036</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D25" t="n">
-        <v>665.1335920921263</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="E25" t="n">
-        <v>495.3755883428635</v>
+        <v>448.0171411277256</v>
       </c>
       <c r="F25" t="n">
-        <v>495.3755883428635</v>
+        <v>271.3100870894817</v>
       </c>
       <c r="G25" t="n">
-        <v>329.7843133686912</v>
+        <v>271.3100870894817</v>
       </c>
       <c r="H25" t="n">
-        <v>189.8821390590657</v>
+        <v>131.4079127798562</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,43 +6235,43 @@
         <v>1177.320806523639</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>2009.667423945775</v>
       </c>
       <c r="N26" t="n">
-        <v>3460.099625170637</v>
+        <v>3135.398407382222</v>
       </c>
       <c r="O26" t="n">
-        <v>4440.279291740943</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>3800.424250186843</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M27" t="n">
-        <v>3800.424250186843</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N27" t="n">
-        <v>3800.424250186843</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O27" t="n">
-        <v>3800.424250186843</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>1286.300469346935</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>1286.300469346935</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>2443.348304557486</v>
       </c>
       <c r="N29" t="n">
-        <v>3460.099625170637</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O29" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1602.717526820355</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6777,28 +6779,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1327.049347523737</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G34" t="n">
         <v>330.8229638057298</v>
@@ -6883,25 +6885,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W34" t="n">
-        <v>1618.529374268236</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X34" t="n">
-        <v>1373.137619601648</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6931,37 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>388.1086717343214</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>388.1086717343214</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.168637987181</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -7014,28 +7016,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>828.6046571760505</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="L36" t="n">
-        <v>828.6046571760505</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="M36" t="n">
-        <v>828.6046571760505</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N36" t="n">
-        <v>828.6046571760505</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O36" t="n">
-        <v>828.6046571760505</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1162.814665109382</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>306.1208027766299</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>2443.348304557487</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O38" t="n">
         <v>3569.079287993934</v>
@@ -7217,7 +7219,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>4455.130296812566</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L39" t="n">
-        <v>4455.130296812566</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M39" t="n">
-        <v>4455.130296812566</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N39" t="n">
-        <v>4455.130296812566</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O39" t="n">
-        <v>4455.130296812566</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="P39" t="n">
-        <v>4455.130296812566</v>
+        <v>1602.717526820355</v>
       </c>
       <c r="Q39" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1015.441008084184</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2502.36003121977</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2064.217558403193</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>76.13761321162086</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>378.5120080483794</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>378.5120080483794</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M41" t="n">
-        <v>378.5120080483794</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>1320.714971542188</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>3806.880660581043</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>3806.880660581043</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3756.088188825714</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3336.945725405024</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2928.659601704678</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>76.13761321162086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>76.13761321162086</v>
+        <v>147.8711371056732</v>
       </c>
       <c r="K42" t="n">
-        <v>76.13761321162086</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="L42" t="n">
-        <v>76.13761321162086</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="M42" t="n">
-        <v>76.13761321162086</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="N42" t="n">
-        <v>76.13761321162086</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="O42" t="n">
-        <v>261.7424914848164</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.465657964015</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1066.535824598178</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C43" t="n">
-        <v>893.9741130814026</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D43" t="n">
-        <v>728.0961202829253</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E43" t="n">
-        <v>558.3381165336625</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F43" t="n">
-        <v>381.6310624954187</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>216.0397875212464</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2512.138033117789</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2512.138033117789</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2233.705032370895</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>2003.192273083353</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1731.165868669644</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1485.774114003057</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1258.354443317165</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2502.77682059263</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2064.634347776053</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D44" t="n">
-        <v>1628.724562950498</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E44" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F44" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771616</v>
       </c>
       <c r="G44" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004253</v>
       </c>
       <c r="H44" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>76.13761321162086</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>378.5120080483794</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1320.714971542188</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M44" t="n">
-        <v>1320.714971542188</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>1320.714971542188</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3243.939256954935</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>2929.076391077538</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2929.076391077538</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2929.076391077538</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>944.8728193312368</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C46" t="n">
-        <v>772.3111078144617</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>606.4331150159844</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>436.6751112667217</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>259.9680572284778</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2692.797223114421</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.917776692876</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2168.484775945981</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1881.529267816412</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1609.502863402703</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X46" t="n">
-        <v>1364.111108736116</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y46" t="n">
-        <v>1136.691438050224</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8000,7 +8002,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538403</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8143,16 +8145,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>409.0142240616578</v>
+        <v>394.8387895261749</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>72.80589558611064</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,16 +8306,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>385.0780411188031</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q6" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>130.5917045986993</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,13 +8534,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,16 +8695,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>926.4397398113929</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8763,25 +8765,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>324.5237132641532</v>
       </c>
       <c r="O12" t="n">
-        <v>546.2375134827066</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>70.48875245436349</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>951.7201651452608</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>951.7201651452608</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -9009,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>400.4833060795844</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>497.8733301746875</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>826.8607034446131</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,10 +9245,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9416,13 +9418,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q20" t="n">
-        <v>69.04441372935707</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,25 +9476,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9653,7 +9655,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9711,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9883,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>840.7541590122582</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9890,13 +9892,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>756.3484258820585</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10124,13 +10126,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>508.6956131767492</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10185,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10427,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10434,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>442.8800547735873</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>288.7351832965068</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10662,10 +10664,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>379.5169886652535</v>
+        <v>279.5090739465429</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>1082.305540278396</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>305.4286816532915</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>19.74406431761207</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>305.4286816532915</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23258,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>131.9878865746094</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>151.6517301091744</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627256</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>48.19697732171264</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>131.2385495991671</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>81.78272691405301</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.028263932668196</v>
+        <v>58.91774794908556</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.48800580459475</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>161.9268490649758</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>18.31929241554607</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>55.87832135360748</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>32.95267764171871</v>
       </c>
     </row>
     <row r="41">
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5223530053007</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>55.87832135360733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>33.27974144948206</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25922,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>89.09266282445321</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>69.71657238081362</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>420506.9297038598</v>
+        <v>426848.0909154975</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>420506.9297038598</v>
+        <v>427989.8309384602</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>352086.6964976379</v>
+        <v>435459.8076421443</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>352086.6964976379</v>
+        <v>435459.8076421443</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>352086.6964976379</v>
+        <v>435459.8076421443</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>352086.696497638</v>
+        <v>435459.8076421443</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>536147.3198904082</v>
+        <v>536147.3198904083</v>
       </c>
       <c r="C2" t="n">
-        <v>536147.3198904082</v>
+        <v>536147.3198904083</v>
       </c>
       <c r="D2" t="n">
-        <v>536147.3198904083</v>
+        <v>536147.3198904085</v>
       </c>
       <c r="E2" t="n">
-        <v>425985.4596640249</v>
+        <v>526857.5841373523</v>
       </c>
       <c r="F2" t="n">
-        <v>425985.4596640249</v>
+        <v>526857.5841373523</v>
       </c>
       <c r="G2" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="H2" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="I2" t="n">
+        <v>526857.5841373521</v>
+      </c>
+      <c r="J2" t="n">
         <v>526857.5841373522</v>
-      </c>
-      <c r="J2" t="n">
-        <v>526857.5841373521</v>
       </c>
       <c r="K2" t="n">
         <v>526857.5841373522</v>
       </c>
       <c r="L2" t="n">
-        <v>526857.5841373521</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="M2" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="N2" t="n">
         <v>526857.5841373523</v>
       </c>
       <c r="O2" t="n">
-        <v>425985.4596640249</v>
+        <v>526857.5841373524</v>
       </c>
       <c r="P2" t="n">
-        <v>425985.4596640249</v>
+        <v>526857.5841373522</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501608</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998285</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636913</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877245</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622378</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>187564.5330558132</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>146735.1647947851</v>
       </c>
       <c r="D4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>33249.55378461168</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="F4" t="n">
-        <v>33249.55378461168</v>
+        <v>41122.95192991273</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991267</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991266</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="J4" t="n">
-        <v>41122.95192991266</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="K4" t="n">
-        <v>41122.95192991267</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="M4" t="n">
         <v>41122.95192991272</v>
@@ -26454,10 +26456,10 @@
         <v>41122.95192991272</v>
       </c>
       <c r="O4" t="n">
-        <v>33249.55378461168</v>
+        <v>41122.95192991267</v>
       </c>
       <c r="P4" t="n">
-        <v>33249.55378461169</v>
+        <v>41122.95192991259</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146966.6980376626</v>
+        <v>146966.6980376628</v>
       </c>
       <c r="C6" t="n">
-        <v>289157.9986973726</v>
+        <v>250868.1733926046</v>
       </c>
       <c r="D6" t="n">
-        <v>289157.9986973727</v>
+        <v>311023.4525397635</v>
       </c>
       <c r="E6" t="n">
-        <v>177394.0249164773</v>
+        <v>225661.2843805973</v>
       </c>
       <c r="F6" t="n">
-        <v>334871.3198385813</v>
+        <v>408016.3936016471</v>
       </c>
       <c r="G6" t="n">
-        <v>318516.5849952779</v>
+        <v>408016.393601647</v>
       </c>
       <c r="H6" t="n">
-        <v>408016.3936016471</v>
+        <v>408016.393601647</v>
       </c>
       <c r="I6" t="n">
-        <v>408016.3936016469</v>
+        <v>408016.3936016468</v>
       </c>
       <c r="J6" t="n">
         <v>297001.9282566567</v>
       </c>
       <c r="K6" t="n">
-        <v>408016.393601647</v>
+        <v>354970.5389628745</v>
       </c>
       <c r="L6" t="n">
-        <v>408016.3936016468</v>
+        <v>398624.0918750245</v>
       </c>
       <c r="M6" t="n">
-        <v>276580.1464442276</v>
+        <v>255816.2226636593</v>
       </c>
       <c r="N6" t="n">
         <v>408016.3936016471</v>
       </c>
       <c r="O6" t="n">
-        <v>334871.3198385814</v>
+        <v>408016.3936016473</v>
       </c>
       <c r="P6" t="n">
-        <v>334871.3198385814</v>
+        <v>408016.3936016471</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.108974848359</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939365</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.108974848359</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939365</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.108974848359</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939365</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>230.0306701181815</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>360.899624703881</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27588,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>197.8207470879983</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>61.45684192569766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27624,16 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>33.99907993901596</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>70.51515507043536</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>35.90023473049456</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27822,10 +27824,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>165.3921969801218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>370.3579796189766</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>372.7964946687788</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27870,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>232.8319945818284</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>216.236228642401</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29335,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -34696,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34720,7 +34722,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538403</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34863,16 +34865,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>409.0142240616578</v>
+        <v>394.8387895261749</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>72.80589558611064</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,16 +35026,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>385.0780411188031</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q6" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>130.5917045986993</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,13 +35254,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,19 +35412,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>926.4397398113929</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327045</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>324.5237132641532</v>
       </c>
       <c r="O12" t="n">
-        <v>546.2375134827066</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>70.48875245436349</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>951.7201651452608</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>951.7201651452608</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35729,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>400.4833060795844</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>497.8733301746875</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924961005</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>826.8607034446131</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36127,22 +36129,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q20" t="n">
-        <v>69.04441372935707</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36603,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>840.7541590122582</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36610,13 +36612,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36689,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>756.3484258820585</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36844,13 +36846,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>508.6956131767492</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>442.8800547735873</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>288.7351832965068</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37382,10 +37384,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>379.5169886652535</v>
+        <v>279.5090739465429</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>1082.305540278396</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132072</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>305.4286816532915</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37801,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>19.74406431761207</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,13 +37873,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>305.4286816532915</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38038,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2685400.506994494</v>
+        <v>2684875.324625461</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216495</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916859</v>
+        <v>278692.0725916861</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>31.53501237432639</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -673,13 +673,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>36.48422835908769</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>202.8587092932268</v>
       </c>
       <c r="V4" t="n">
-        <v>86.26520596027558</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>274.6889693313892</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -904,7 +904,7 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>252.2397730721999</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>49.02203366358007</v>
       </c>
       <c r="C7" t="n">
-        <v>134.9358596711128</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1113,7 +1113,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>335.8915546016272</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>58.75419230852108</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>137.8834167598887</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1353,7 +1353,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>53.06991172717037</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765152</v>
       </c>
       <c r="U13" t="n">
-        <v>46.22530271040065</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1672,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1773,19 +1773,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.57637241135877</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1852,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1897,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2010,16 +2010,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H19" t="n">
-        <v>7.264602967362117</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2143,7 +2143,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>160.788496495006</v>
+        <v>3.139541480022602</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>28.85560178398585</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>98.73120706589778</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3286,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791351935</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3444,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>43.77283765622097</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>101.7706336613758</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>192.1927963373141</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3742,25 +3742,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791314795</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556953</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3909,7 +3909,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -3918,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3960,10 +3960,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>212.945004178556</v>
       </c>
       <c r="X43" t="n">
-        <v>209.6580956704396</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3979,25 +3979,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884095</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112177</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791314795</v>
+        <v>0.4126214791351935</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800145</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4036,13 +4036,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4137,13 +4137,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>10.04027365719937</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>26.41040541581665</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>991.498727323736</v>
+        <v>1241.126648598368</v>
       </c>
       <c r="C2" t="n">
-        <v>957.3966585475634</v>
+        <v>812.5449743356364</v>
       </c>
       <c r="D2" t="n">
-        <v>528.8149842848318</v>
+        <v>780.675593550485</v>
       </c>
       <c r="E2" t="n">
-        <v>499.080643483531</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="F2" t="n">
-        <v>71.21321389273874</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>857.0776321906106</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4363,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1437.146076848872</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.044017468586</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>1013.75789376824</v>
+        <v>1272.980196451223</v>
       </c>
     </row>
     <row r="3">
@@ -4406,25 +4406,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>432.2637958858213</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>432.2637958858213</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>432.2637958858213</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>538.7332355342593</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>958.7861344791625</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>958.7861344791625</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4521,19 +4521,19 @@
         <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1065.737006497366</v>
       </c>
       <c r="V4" t="n">
-        <v>905.0752212383005</v>
+        <v>778.7814983677961</v>
       </c>
       <c r="W4" t="n">
-        <v>905.0752212383005</v>
+        <v>506.7550939540876</v>
       </c>
       <c r="X4" t="n">
-        <v>659.683466571713</v>
+        <v>261.3633392875001</v>
       </c>
       <c r="Y4" t="n">
-        <v>432.2637958858213</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>829.2100454836328</v>
+        <v>169.9652025024901</v>
       </c>
       <c r="C5" t="n">
-        <v>795.1079767074602</v>
+        <v>135.8631337263174</v>
       </c>
       <c r="D5" t="n">
-        <v>763.2385959223088</v>
+        <v>103.993752941166</v>
       </c>
       <c r="E5" t="n">
-        <v>329.463851080604</v>
+        <v>74.25941213986525</v>
       </c>
       <c r="F5" t="n">
-        <v>305.6368255302158</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="G5" t="n">
-        <v>305.6368255302158</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233706</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947706</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
         <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087174</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>1109.787858087174</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="M5" t="n">
-        <v>1181.865694717423</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="N5" t="n">
-        <v>1181.865694717423</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717423</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762202</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720796</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473853</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473853</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>2301.552102346892</v>
+        <v>2301.552102346891</v>
       </c>
       <c r="U5" t="n">
-        <v>2042.329799663909</v>
+        <v>2042.329799663908</v>
       </c>
       <c r="V5" t="n">
-        <v>1679.712849597735</v>
+        <v>1679.712849597734</v>
       </c>
       <c r="W5" t="n">
         <v>1274.857395008768</v>
       </c>
       <c r="X5" t="n">
-        <v>1259.755335628483</v>
+        <v>855.7149315880782</v>
       </c>
       <c r="Y5" t="n">
-        <v>851.4692119281366</v>
+        <v>447.4288078877316</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947706</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>50.43238658947706</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>50.43238658947706</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>50.43238658947706</v>
+        <v>401.054384716147</v>
       </c>
       <c r="L6" t="n">
-        <v>50.43238658947706</v>
+        <v>401.054384716147</v>
       </c>
       <c r="M6" t="n">
-        <v>50.43238658947706</v>
+        <v>401.054384716147</v>
       </c>
       <c r="N6" t="n">
-        <v>431.6596472970921</v>
+        <v>401.054384716147</v>
       </c>
       <c r="O6" t="n">
-        <v>431.6596472970921</v>
+        <v>431.6596472970923</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1093.227683837222</v>
+        <v>735.3371486922359</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845833</v>
+        <v>562.7754371754609</v>
       </c>
       <c r="D7" t="n">
-        <v>791.050842886106</v>
+        <v>396.8974443769836</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368433</v>
+        <v>227.1394406277208</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985996</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244272</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947706</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
         <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>266.2978593068792</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>684.5077410748403</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255753</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413398</v>
+        <v>1586.250411413397</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639179</v>
+        <v>2005.919660639178</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609521</v>
+        <v>2353.42655460952</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473853</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>2521.619329473853</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>2362.37796077185</v>
+        <v>2340.960139477221</v>
       </c>
       <c r="T7" t="n">
-        <v>2116.498514350305</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>1838.06551360341</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>1838.06551360341</v>
+        <v>1529.692184179212</v>
       </c>
       <c r="W7" t="n">
-        <v>1566.039109189702</v>
+        <v>1257.665779765503</v>
       </c>
       <c r="X7" t="n">
-        <v>1320.647354523114</v>
+        <v>1012.274025098916</v>
       </c>
       <c r="Y7" t="n">
-        <v>1093.227683837222</v>
+        <v>784.8543544130239</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>893.9996686250441</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>859.8975998488716</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>800.5499308503654</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>366.7751860086605</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4807,25 +4807,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1954.407975719776</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4846,10 +4846,10 @@
         <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1324.544958769894</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>916.2588350695479</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4886,10 +4886,10 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
         <v>1058.729261281022</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>959.897665623735</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="D10" t="n">
         <v>794.0196728252577</v>
@@ -5001,13 +5001,13 @@
         <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1624.527709695201</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1379.135955028614</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1151.716284342722</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5029,13 +5029,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5080,13 +5080,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1327.049347523737</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
         <v>1648.327823655249</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1181.319000882661</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C13" t="n">
-        <v>1008.757289365886</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D13" t="n">
-        <v>842.8792965674086</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
         <v>190.9207894961043</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2451.623182457406</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U13" t="n">
-        <v>2404.930957497405</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V13" t="n">
-        <v>2117.975449367836</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W13" t="n">
-        <v>1845.949044954127</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X13" t="n">
-        <v>1600.55729028754</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y13" t="n">
-        <v>1373.137619601648</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="14">
@@ -5284,40 +5284,40 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
@@ -5375,10 +5375,10 @@
         <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1272.606004876648</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>790.3368563937674</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>617.7751448769924</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D16" t="n">
-        <v>451.8971520785151</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E16" t="n">
-        <v>282.1391483292524</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>282.1391483292524</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>282.1391483292524</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>142.2369740196269</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5439,49 +5439,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006609</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>881.80886177457</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.551532113128</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878955</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176952</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755407</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008512</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878942</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.966900465234</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798646</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1554751127546</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
         <v>1221.073045167952</v>
@@ -5506,7 +5506,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5521,46 +5521,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1602.717526820355</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>451.897152078511</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>275.1900980402672</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
-        <v>109.5988230660949</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5752,43 +5752,43 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257732</v>
@@ -5834,22 +5834,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>949.5782250957668</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>777.0165135789917</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>611.1385207805145</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>441.3805170312517</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>264.6734629930079</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2173.190181710511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1886.234673580942</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1614.208269167233</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1368.816514500646</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1141.396843814754</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>617.7751448769883</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>448.0171411277256</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>271.3100870894817</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>271.3100870894817</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>131.4079127798562</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2009.667423945775</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>3135.398407382222</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4115.578073952528</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6466,16 +6466,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>1286.300469346935</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.300469346935</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2443.348304557486</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
         <v>3569.079287993933</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1602.717526820355</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6782,19 +6782,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>949.5782250957668</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>777.0165135789917</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>677.2880215932364</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>507.5300178439736</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>330.8229638057298</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
         <v>330.8229638057298</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2451.623182457406</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U34" t="n">
-        <v>2173.190181710511</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V34" t="n">
-        <v>1886.234673580942</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1614.208269167233</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1368.816514500646</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1141.396843814754</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651793</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835216</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.84779000966</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167956</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771634</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004272</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436435</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>2758.053686176687</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176687</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.233352746993</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.54322758039</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538984</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538984</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722821</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.32291259586</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912876</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846703</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257736</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837047</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.1996181367</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D36" t="n">
         <v>406.885835245268</v>
@@ -7007,49 +7007,49 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>128.3245134312373</v>
       </c>
       <c r="J36" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T36" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V36" t="n">
         <v>1196.412455590541</v>
@@ -7058,10 +7058,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="37">
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>970.9960463903953</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>798.4343348736203</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>798.4343348736203</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>628.6763311243576</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>451.9692770861138</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>286.3780021119415</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>146.475827802316</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J37" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745663</v>
       </c>
       <c r="M37" t="n">
         <v>1341.292728955479</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2594.704009018975</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2594.704009018975</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U37" t="n">
-        <v>2316.271008272081</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V37" t="n">
-        <v>2029.315500142511</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.289095728803</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.897341062215</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376323</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7162,64 +7162,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L38" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M38" t="n">
-        <v>2443.348304557487</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N38" t="n">
-        <v>3569.079287993934</v>
+        <v>3304.552472135282</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>4284.732138705588</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538984</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538984</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538984</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722821</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.32291259586</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912876</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846703</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257736</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837047</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D39" t="n">
         <v>406.885835245268</v>
@@ -7244,49 +7244,49 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312373</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1602.717526820355</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S39" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T39" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V39" t="n">
         <v>1196.412455590541</v>
@@ -7295,10 +7295,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="40">
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1015.441008084184</v>
+        <v>949.5782250957673</v>
       </c>
       <c r="C40" t="n">
-        <v>842.8792965674086</v>
+        <v>777.0165135789922</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>611.1385207805149</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>441.3805170312522</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>264.6734629930083</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745663</v>
       </c>
       <c r="M40" t="n">
         <v>1341.292728955479</v>
@@ -7359,25 +7359,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y40" t="n">
-        <v>1015.441008084184</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="41">
@@ -7399,64 +7399,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436397</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423628</v>
+        <v>3304.552472135282</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>3304.552472135282</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>4284.732138705588</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538984</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538984</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538984</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722821</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D42" t="n">
         <v>406.885835245268</v>
@@ -7481,49 +7481,49 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
-        <v>128.3245134312372</v>
+        <v>128.3245134312373</v>
       </c>
       <c r="J42" t="n">
-        <v>147.8711371056732</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
         <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S42" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T42" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V42" t="n">
         <v>1196.412455590541</v>
@@ -7532,10 +7532,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="43">
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1004.611946844417</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>832.0502353276421</v>
+        <v>920.0973401405614</v>
       </c>
       <c r="D43" t="n">
-        <v>666.1722425291648</v>
+        <v>754.2193473420841</v>
       </c>
       <c r="E43" t="n">
-        <v>496.4142387799021</v>
+        <v>584.4613435928213</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545775</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804052</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745663</v>
       </c>
       <c r="M43" t="n">
         <v>1341.292728955479</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W43" t="n">
-        <v>1635.626090461861</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="X43" t="n">
-        <v>1423.850236249296</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y43" t="n">
-        <v>1196.430565563404</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651793</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835216</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009659</v>
+        <v>1654.84779000966</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167954</v>
+        <v>1221.073045167956</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771616</v>
+        <v>793.2056155771634</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004253</v>
+        <v>391.8077842004272</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436435</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.89962142363</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993937</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827333</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785928</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538984</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722821</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.32291259586</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912876</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846703</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257736</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837047</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.1996181367</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D45" t="n">
         <v>406.885835245268</v>
@@ -7718,13 +7718,13 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
-        <v>128.3245134312372</v>
+        <v>128.3245134312373</v>
       </c>
       <c r="J45" t="n">
         <v>452.8828383974496</v>
@@ -7751,16 +7751,16 @@
         <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S45" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T45" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V45" t="n">
         <v>1196.412455590541</v>
@@ -7769,10 +7769,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="46">
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.3368563937634</v>
+        <v>949.5782250957673</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>777.0165135789922</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>611.1385207805149</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928213</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545775</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804052</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745663</v>
       </c>
       <c r="M46" t="n">
         <v>1341.292728955479</v>
@@ -7833,25 +7833,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878938</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.96690046523</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.575145798642</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1554751127505</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7990,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8002,7 +8002,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>288.7962490401609</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8145,16 +8145,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>394.8387895261749</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8218,22 +8218,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>72.80589558611064</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8306,13 +8306,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>385.0780411188031</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741953</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8376,7 +8376,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>130.5917045986993</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8385,7 +8385,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>446.7260637956006</v>
+        <v>299.7839758982022</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8455,28 +8455,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>88.52591951400996</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,13 +8534,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,19 +8777,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8932,13 +8932,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>497.8733301746875</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>840.7541590122582</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9895,7 +9895,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,19 +10114,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>756.3484258820585</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10591,13 +10591,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525706</v>
+        <v>314.2706063050018</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10609,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>279.5090739465429</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,25 +10828,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1082.305540278396</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>866.2895820207541</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,10 +11065,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>866.2895820207541</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>19.74406431761207</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11302,13 +11302,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352478</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="U13" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>48.19697732171264</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
-        <v>131.2385495991671</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>3.146865729424633</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>58.91774794908556</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.48800580459475</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>44.00051207685044</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>55.87832135360748</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>32.95267764171871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>56.36113619101536</v>
       </c>
       <c r="X43" t="n">
-        <v>33.27974144948206</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26316,43 +26316,43 @@
         <v>536147.3198904083</v>
       </c>
       <c r="C2" t="n">
+        <v>536147.3198904084</v>
+      </c>
+      <c r="D2" t="n">
         <v>536147.3198904083</v>
       </c>
-      <c r="D2" t="n">
-        <v>536147.3198904085</v>
-      </c>
       <c r="E2" t="n">
+        <v>526857.5841373522</v>
+      </c>
+      <c r="F2" t="n">
+        <v>526857.5841373522</v>
+      </c>
+      <c r="G2" t="n">
         <v>526857.5841373523</v>
-      </c>
-      <c r="F2" t="n">
-        <v>526857.5841373523</v>
-      </c>
-      <c r="G2" t="n">
-        <v>526857.5841373522</v>
       </c>
       <c r="H2" t="n">
         <v>526857.5841373522</v>
       </c>
       <c r="I2" t="n">
+        <v>526857.5841373522</v>
+      </c>
+      <c r="J2" t="n">
         <v>526857.5841373521</v>
       </c>
-      <c r="J2" t="n">
-        <v>526857.5841373522</v>
-      </c>
       <c r="K2" t="n">
-        <v>526857.5841373522</v>
+        <v>526857.5841373521</v>
       </c>
       <c r="L2" t="n">
         <v>526857.5841373522</v>
       </c>
       <c r="M2" t="n">
+        <v>526857.5841373525</v>
+      </c>
+      <c r="N2" t="n">
         <v>526857.5841373522</v>
       </c>
-      <c r="N2" t="n">
-        <v>526857.5841373523</v>
-      </c>
       <c r="O2" t="n">
-        <v>526857.5841373524</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="P2" t="n">
         <v>526857.5841373522</v>
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501608</v>
+        <v>66587.767895016</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998285</v>
+        <v>11527.59554998292</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210498</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877245</v>
+        <v>53045.85463877239</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622378</v>
+        <v>9392.301726622436</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379877</v>
+        <v>152200.1709379878</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558132</v>
+        <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
         <v>146735.1647947851</v>
@@ -26429,37 +26429,37 @@
         <v>41122.95192991271</v>
       </c>
       <c r="F4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991267</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991266</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="J4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991273</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991273</v>
       </c>
       <c r="O4" t="n">
-        <v>41122.95192991267</v>
+        <v>41122.95192991257</v>
       </c>
       <c r="P4" t="n">
-        <v>41122.95192991259</v>
+        <v>41122.95192991256</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579256</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579256</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579256</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579256</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146966.6980376628</v>
+        <v>146966.6980376627</v>
       </c>
       <c r="C6" t="n">
-        <v>250868.1733926046</v>
+        <v>250868.1733926047</v>
       </c>
       <c r="D6" t="n">
-        <v>311023.4525397635</v>
+        <v>311023.4525397631</v>
       </c>
       <c r="E6" t="n">
-        <v>225661.2843805973</v>
+        <v>225638.0600412146</v>
       </c>
       <c r="F6" t="n">
-        <v>408016.3936016471</v>
+        <v>407993.1692622643</v>
       </c>
       <c r="G6" t="n">
-        <v>408016.393601647</v>
+        <v>407993.1692622644</v>
       </c>
       <c r="H6" t="n">
-        <v>408016.393601647</v>
+        <v>407993.1692622643</v>
       </c>
       <c r="I6" t="n">
-        <v>408016.3936016468</v>
+        <v>407993.1692622643</v>
       </c>
       <c r="J6" t="n">
-        <v>297001.9282566567</v>
+        <v>296978.703917274</v>
       </c>
       <c r="K6" t="n">
-        <v>354970.5389628745</v>
+        <v>354947.3146234918</v>
       </c>
       <c r="L6" t="n">
-        <v>398624.0918750245</v>
+        <v>398600.8675356418</v>
       </c>
       <c r="M6" t="n">
-        <v>255816.2226636593</v>
+        <v>255792.9983242768</v>
       </c>
       <c r="N6" t="n">
-        <v>408016.3936016471</v>
+        <v>407993.1692622642</v>
       </c>
       <c r="O6" t="n">
-        <v>408016.3936016473</v>
+        <v>407993.1692622644</v>
       </c>
       <c r="P6" t="n">
-        <v>408016.3936016471</v>
+        <v>407993.1692622644</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -26822,16 +26822,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.108974848359</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939365</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.108974848359</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939365</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768888</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.108974848359</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939365</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>390.5015624057323</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.465190568306582</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>360.899624703881</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27545,7 +27545,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -27554,10 +27554,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>72.7899614461989</v>
       </c>
       <c r="V4" t="n">
-        <v>197.8207470879983</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>147.3476054486695</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27624,7 +27624,7 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>33.99907993901596</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>140.8783988682172</v>
       </c>
       <c r="C7" t="n">
-        <v>35.90023473049456</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>86.14502017843148</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>372.7964946687788</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>26.33579611060378</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>216.236228642401</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-3.581135388230905e-12</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30717,7 +30717,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-3.795963543495873e-12</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,10 +34710,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34722,7 +34722,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>288.7962490401609</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34865,16 +34865,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>394.8387895261749</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>72.80589558611064</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35026,13 +35026,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>385.0780411188031</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741953</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,19 +35093,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
-        <v>130.5917045986993</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>446.7260637956006</v>
+        <v>299.7839758982022</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
@@ -35175,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>88.52591951400996</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35652,13 +35652,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638367</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>497.8733301746875</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924961005</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35889,13 +35889,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>840.7541590122582</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36615,7 +36615,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,19 +36834,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>756.3484258820585</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37165,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37308,16 +37308,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525706</v>
+        <v>314.2706063050018</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37329,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>279.5090739465429</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37472,13 +37472,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37545,28 +37545,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1082.305540278396</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>866.2895820207541</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37709,13 +37709,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37782,13 +37782,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>866.2895820207541</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37800,10 +37800,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>19.74406431761207</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37946,13 +37946,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38019,16 +38019,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352478</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38183,13 +38183,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
